--- a/biology/Botanique/Retama_dasycarpa/Retama_dasycarpa.xlsx
+++ b/biology/Botanique/Retama_dasycarpa/Retama_dasycarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Retama dasycarpa est une espèce d’arbustes de la famille des Fabaceae, endémique du Maroc. C'est une plante adaptée au climat des montagnes de l'Atlas.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1878 par Ernest Cosson  et John Ball en tant que Genista dasycarpa, puis elle a été adoptée sous le nom de Retama dasycarpa dans une publication datant de 1892 attribuée à Cosson. 
-Selon le Conservatoire et Jardin Botaniques de la ville de Genève, cette espèce a un seul synonyme accepté Genista dasycarpa[3]; cependant Lygos dasycarpa (Coss.) Jäger est un synonyme possible.
+Selon le Conservatoire et Jardin Botaniques de la ville de Genève, cette espèce a un seul synonyme accepté Genista dasycarpa; cependant Lygos dasycarpa (Coss.) Jäger est un synonyme possible.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante pérenne non grimpante, poussant sous forme d'arbustes touffus dans les zones humides des régions semi-désertiques en altitude[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante pérenne non grimpante, poussant sous forme d'arbustes touffus dans les zones humides des régions semi-désertiques en altitude.
 </t>
         </is>
       </c>
